--- a/data/indecnacional.xlsx
+++ b/data/indecnacional.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q78"/>
+  <dimension ref="A1:Q79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4686,6 +4686,61 @@
         </is>
       </c>
     </row>
+    <row r="79">
+      <c r="A79">
+        <v>6</v>
+      </c>
+      <c r="B79">
+        <v>4.1</v>
+      </c>
+      <c r="C79">
+        <v>4.5</v>
+      </c>
+      <c r="D79">
+        <v>4.2</v>
+      </c>
+      <c r="E79">
+        <v>8.1</v>
+      </c>
+      <c r="F79">
+        <v>8</v>
+      </c>
+      <c r="G79">
+        <v>8.6</v>
+      </c>
+      <c r="H79">
+        <v>6.5</v>
+      </c>
+      <c r="I79">
+        <v>10.5</v>
+      </c>
+      <c r="J79">
+        <v>6.5</v>
+      </c>
+      <c r="K79">
+        <v>6.6</v>
+      </c>
+      <c r="L79">
+        <v>6.3</v>
+      </c>
+      <c r="M79">
+        <v>6.6</v>
+      </c>
+      <c r="N79" s="2">
+        <v>45078</v>
+      </c>
+      <c r="O79">
+        <v>2023</v>
+      </c>
+      <c r="P79">
+        <v>6</v>
+      </c>
+      <c r="Q79" t="inlineStr">
+        <is>
+          <t>Jun</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/indecnacional.xlsx
+++ b/data/indecnacional.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q79"/>
+  <dimension ref="A1:Q80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4741,6 +4741,61 @@
         </is>
       </c>
     </row>
+    <row r="80">
+      <c r="A80">
+        <v>6.3</v>
+      </c>
+      <c r="B80">
+        <v>5.8</v>
+      </c>
+      <c r="C80">
+        <v>9</v>
+      </c>
+      <c r="D80">
+        <v>3</v>
+      </c>
+      <c r="E80">
+        <v>4</v>
+      </c>
+      <c r="F80">
+        <v>6.2</v>
+      </c>
+      <c r="G80">
+        <v>9</v>
+      </c>
+      <c r="H80">
+        <v>5.3</v>
+      </c>
+      <c r="I80">
+        <v>12.2</v>
+      </c>
+      <c r="J80">
+        <v>11.2</v>
+      </c>
+      <c r="K80">
+        <v>6.1</v>
+      </c>
+      <c r="L80">
+        <v>7.5</v>
+      </c>
+      <c r="M80">
+        <v>6.3</v>
+      </c>
+      <c r="N80" s="2">
+        <v>45108</v>
+      </c>
+      <c r="O80">
+        <v>2023</v>
+      </c>
+      <c r="P80">
+        <v>7</v>
+      </c>
+      <c r="Q80" t="inlineStr">
+        <is>
+          <t>Jul</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/indecnacional.xlsx
+++ b/data/indecnacional.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q80"/>
+  <dimension ref="A1:Q81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4796,6 +4796,61 @@
         </is>
       </c>
     </row>
+    <row r="81">
+      <c r="A81">
+        <v>12.4</v>
+      </c>
+      <c r="B81">
+        <v>15.6</v>
+      </c>
+      <c r="C81">
+        <v>8.5</v>
+      </c>
+      <c r="D81">
+        <v>9.1</v>
+      </c>
+      <c r="E81">
+        <v>9.1</v>
+      </c>
+      <c r="F81">
+        <v>14.1</v>
+      </c>
+      <c r="G81">
+        <v>15.3</v>
+      </c>
+      <c r="H81">
+        <v>10.5</v>
+      </c>
+      <c r="I81">
+        <v>4.5</v>
+      </c>
+      <c r="J81">
+        <v>11.6</v>
+      </c>
+      <c r="K81">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="L81">
+        <v>12.4</v>
+      </c>
+      <c r="M81">
+        <v>9.4</v>
+      </c>
+      <c r="N81" s="2">
+        <v>45139</v>
+      </c>
+      <c r="O81">
+        <v>2023</v>
+      </c>
+      <c r="P81">
+        <v>8</v>
+      </c>
+      <c r="Q81" t="inlineStr">
+        <is>
+          <t>Aug</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/indecnacional.xlsx
+++ b/data/indecnacional.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q81"/>
+  <dimension ref="A1:Q82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4851,6 +4851,61 @@
         </is>
       </c>
     </row>
+    <row r="82">
+      <c r="A82">
+        <v>12.7</v>
+      </c>
+      <c r="B82">
+        <v>14.3</v>
+      </c>
+      <c r="C82">
+        <v>11.5</v>
+      </c>
+      <c r="D82">
+        <v>15.7</v>
+      </c>
+      <c r="E82">
+        <v>8.5</v>
+      </c>
+      <c r="F82">
+        <v>12.7</v>
+      </c>
+      <c r="G82">
+        <v>9.5</v>
+      </c>
+      <c r="H82">
+        <v>10.8</v>
+      </c>
+      <c r="I82">
+        <v>9.6</v>
+      </c>
+      <c r="J82">
+        <v>15.1</v>
+      </c>
+      <c r="K82">
+        <v>8.1</v>
+      </c>
+      <c r="L82">
+        <v>13.2</v>
+      </c>
+      <c r="M82">
+        <v>11.7</v>
+      </c>
+      <c r="N82" s="2">
+        <v>45170</v>
+      </c>
+      <c r="O82">
+        <v>2023</v>
+      </c>
+      <c r="P82">
+        <v>9</v>
+      </c>
+      <c r="Q82" t="inlineStr">
+        <is>
+          <t>Sep</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/indecnacional.xlsx
+++ b/data/indecnacional.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q82"/>
+  <dimension ref="A1:Q83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4906,6 +4906,61 @@
         </is>
       </c>
     </row>
+    <row r="83">
+      <c r="A83">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="B83">
+        <v>7.7</v>
+      </c>
+      <c r="C83">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="D83">
+        <v>11</v>
+      </c>
+      <c r="E83">
+        <v>7.8</v>
+      </c>
+      <c r="F83">
+        <v>10.7</v>
+      </c>
+      <c r="G83">
+        <v>5.1</v>
+      </c>
+      <c r="H83">
+        <v>7.1</v>
+      </c>
+      <c r="I83">
+        <v>12.6</v>
+      </c>
+      <c r="J83">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="K83">
+        <v>6.6</v>
+      </c>
+      <c r="L83">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="M83">
+        <v>7.7</v>
+      </c>
+      <c r="N83" s="2">
+        <v>45200</v>
+      </c>
+      <c r="O83">
+        <v>2023</v>
+      </c>
+      <c r="P83">
+        <v>10</v>
+      </c>
+      <c r="Q83" t="inlineStr">
+        <is>
+          <t>Oct</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/indecnacional.xlsx
+++ b/data/indecnacional.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q83"/>
+  <dimension ref="A1:Q84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4961,6 +4961,61 @@
         </is>
       </c>
     </row>
+    <row r="84">
+      <c r="A84">
+        <v>12.8</v>
+      </c>
+      <c r="B84">
+        <v>15.7</v>
+      </c>
+      <c r="C84">
+        <v>11.8</v>
+      </c>
+      <c r="D84">
+        <v>10</v>
+      </c>
+      <c r="E84">
+        <v>7.1</v>
+      </c>
+      <c r="F84">
+        <v>12.4</v>
+      </c>
+      <c r="G84">
+        <v>15.9</v>
+      </c>
+      <c r="H84">
+        <v>10.4</v>
+      </c>
+      <c r="I84">
+        <v>15.2</v>
+      </c>
+      <c r="J84">
+        <v>13.2</v>
+      </c>
+      <c r="K84">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="L84">
+        <v>12</v>
+      </c>
+      <c r="M84">
+        <v>11.5</v>
+      </c>
+      <c r="N84" s="2">
+        <v>45231</v>
+      </c>
+      <c r="O84">
+        <v>2023</v>
+      </c>
+      <c r="P84">
+        <v>11</v>
+      </c>
+      <c r="Q84" t="inlineStr">
+        <is>
+          <t>Nov</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/indecnacional.xlsx
+++ b/data/indecnacional.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q84"/>
+  <dimension ref="A1:Q85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5016,6 +5016,61 @@
         </is>
       </c>
     </row>
+    <row r="85">
+      <c r="A85">
+        <v>25.5</v>
+      </c>
+      <c r="B85">
+        <v>29.7</v>
+      </c>
+      <c r="C85">
+        <v>20.2</v>
+      </c>
+      <c r="D85">
+        <v>17.2</v>
+      </c>
+      <c r="E85">
+        <v>13.8</v>
+      </c>
+      <c r="F85">
+        <v>30.7</v>
+      </c>
+      <c r="G85">
+        <v>32.6</v>
+      </c>
+      <c r="H85">
+        <v>31.7</v>
+      </c>
+      <c r="I85">
+        <v>15.6</v>
+      </c>
+      <c r="J85">
+        <v>20.2</v>
+      </c>
+      <c r="K85">
+        <v>6.2</v>
+      </c>
+      <c r="L85">
+        <v>21.6</v>
+      </c>
+      <c r="M85">
+        <v>32.7</v>
+      </c>
+      <c r="N85" s="2">
+        <v>45261</v>
+      </c>
+      <c r="O85">
+        <v>2023</v>
+      </c>
+      <c r="P85">
+        <v>12</v>
+      </c>
+      <c r="Q85" t="inlineStr">
+        <is>
+          <t>Dec</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/indecnacional.xlsx
+++ b/data/indecnacional.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q85"/>
+  <dimension ref="A1:Q86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5071,6 +5071,61 @@
         </is>
       </c>
     </row>
+    <row r="86">
+      <c r="A86">
+        <v>20.6</v>
+      </c>
+      <c r="B86">
+        <v>20.4</v>
+      </c>
+      <c r="C86">
+        <v>21</v>
+      </c>
+      <c r="D86">
+        <v>11.9</v>
+      </c>
+      <c r="E86">
+        <v>14</v>
+      </c>
+      <c r="F86">
+        <v>22.3</v>
+      </c>
+      <c r="G86">
+        <v>20.5</v>
+      </c>
+      <c r="H86">
+        <v>26.3</v>
+      </c>
+      <c r="I86">
+        <v>25.1</v>
+      </c>
+      <c r="J86">
+        <v>24</v>
+      </c>
+      <c r="K86">
+        <v>0.9</v>
+      </c>
+      <c r="L86">
+        <v>19.4</v>
+      </c>
+      <c r="M86">
+        <v>44.4</v>
+      </c>
+      <c r="N86" s="2">
+        <v>45292</v>
+      </c>
+      <c r="O86">
+        <v>2024</v>
+      </c>
+      <c r="P86">
+        <v>1</v>
+      </c>
+      <c r="Q86" t="inlineStr">
+        <is>
+          <t>Jan</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/indecnacional.xlsx
+++ b/data/indecnacional.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q86"/>
+  <dimension ref="A1:Q87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5126,6 +5126,61 @@
         </is>
       </c>
     </row>
+    <row r="87">
+      <c r="A87">
+        <v>13.2</v>
+      </c>
+      <c r="B87">
+        <v>11.9</v>
+      </c>
+      <c r="C87">
+        <v>17.7</v>
+      </c>
+      <c r="D87">
+        <v>7.2</v>
+      </c>
+      <c r="E87">
+        <v>20.2</v>
+      </c>
+      <c r="F87">
+        <v>10.3</v>
+      </c>
+      <c r="G87">
+        <v>13.6</v>
+      </c>
+      <c r="H87">
+        <v>21.6</v>
+      </c>
+      <c r="I87">
+        <v>24.7</v>
+      </c>
+      <c r="J87">
+        <v>8.6</v>
+      </c>
+      <c r="K87">
+        <v>9.9</v>
+      </c>
+      <c r="L87">
+        <v>11.2</v>
+      </c>
+      <c r="M87">
+        <v>16.6</v>
+      </c>
+      <c r="N87" s="2">
+        <v>45323</v>
+      </c>
+      <c r="O87">
+        <v>2024</v>
+      </c>
+      <c r="P87">
+        <v>2</v>
+      </c>
+      <c r="Q87" t="inlineStr">
+        <is>
+          <t>Feb</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/indecnacional.xlsx
+++ b/data/indecnacional.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q87"/>
+  <dimension ref="A1:Q88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5181,6 +5181,61 @@
         </is>
       </c>
     </row>
+    <row r="88">
+      <c r="A88">
+        <v>11</v>
+      </c>
+      <c r="B88">
+        <v>10.5</v>
+      </c>
+      <c r="C88">
+        <v>12.3</v>
+      </c>
+      <c r="D88">
+        <v>10.9</v>
+      </c>
+      <c r="E88">
+        <v>13.3</v>
+      </c>
+      <c r="F88">
+        <v>5</v>
+      </c>
+      <c r="G88">
+        <v>12.2</v>
+      </c>
+      <c r="H88">
+        <v>13</v>
+      </c>
+      <c r="I88">
+        <v>15.9</v>
+      </c>
+      <c r="J88">
+        <v>8.5</v>
+      </c>
+      <c r="K88">
+        <v>52.7</v>
+      </c>
+      <c r="L88">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="M88">
+        <v>9.6</v>
+      </c>
+      <c r="N88" s="2">
+        <v>45352</v>
+      </c>
+      <c r="O88">
+        <v>2024</v>
+      </c>
+      <c r="P88">
+        <v>3</v>
+      </c>
+      <c r="Q88" t="inlineStr">
+        <is>
+          <t>Mar</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/indecnacional.xlsx
+++ b/data/indecnacional.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q88"/>
+  <dimension ref="A1:Q89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5236,6 +5236,61 @@
         </is>
       </c>
     </row>
+    <row r="89">
+      <c r="A89">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="B89">
+        <v>6</v>
+      </c>
+      <c r="C89">
+        <v>5.5</v>
+      </c>
+      <c r="D89">
+        <v>9.6</v>
+      </c>
+      <c r="E89">
+        <v>35.6</v>
+      </c>
+      <c r="F89">
+        <v>6.5</v>
+      </c>
+      <c r="G89">
+        <v>9.1</v>
+      </c>
+      <c r="H89">
+        <v>6.3</v>
+      </c>
+      <c r="I89">
+        <v>14.2</v>
+      </c>
+      <c r="J89">
+        <v>7.1</v>
+      </c>
+      <c r="K89">
+        <v>8.6</v>
+      </c>
+      <c r="L89">
+        <v>7.3</v>
+      </c>
+      <c r="M89">
+        <v>5.7</v>
+      </c>
+      <c r="N89" s="2">
+        <v>45383</v>
+      </c>
+      <c r="O89">
+        <v>2024</v>
+      </c>
+      <c r="P89">
+        <v>4</v>
+      </c>
+      <c r="Q89" t="inlineStr">
+        <is>
+          <t>Apr</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/indecnacional.xlsx
+++ b/data/indecnacional.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q89"/>
+  <dimension ref="A1:Q90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5291,6 +5291,61 @@
         </is>
       </c>
     </row>
+    <row r="90">
+      <c r="A90">
+        <v>4.2</v>
+      </c>
+      <c r="B90">
+        <v>4.8</v>
+      </c>
+      <c r="C90">
+        <v>6.7</v>
+      </c>
+      <c r="D90">
+        <v>3.5</v>
+      </c>
+      <c r="E90">
+        <v>2.5</v>
+      </c>
+      <c r="F90">
+        <v>3.2</v>
+      </c>
+      <c r="G90">
+        <v>0.7</v>
+      </c>
+      <c r="H90">
+        <v>4</v>
+      </c>
+      <c r="I90">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="J90">
+        <v>4.6</v>
+      </c>
+      <c r="K90">
+        <v>7.6</v>
+      </c>
+      <c r="L90">
+        <v>5.5</v>
+      </c>
+      <c r="M90">
+        <v>4.3</v>
+      </c>
+      <c r="N90" s="2">
+        <v>45413</v>
+      </c>
+      <c r="O90">
+        <v>2024</v>
+      </c>
+      <c r="P90">
+        <v>5</v>
+      </c>
+      <c r="Q90" t="inlineStr">
+        <is>
+          <t>May</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/indecnacional.xlsx
+++ b/data/indecnacional.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q90"/>
+  <dimension ref="A1:Q91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5346,6 +5346,61 @@
         </is>
       </c>
     </row>
+    <row r="91">
+      <c r="A91">
+        <v>4.6</v>
+      </c>
+      <c r="B91">
+        <v>3</v>
+      </c>
+      <c r="C91">
+        <v>2.1</v>
+      </c>
+      <c r="D91">
+        <v>2.7</v>
+      </c>
+      <c r="E91">
+        <v>14.3</v>
+      </c>
+      <c r="F91">
+        <v>2.3</v>
+      </c>
+      <c r="G91">
+        <v>4.7</v>
+      </c>
+      <c r="H91">
+        <v>3.9</v>
+      </c>
+      <c r="I91">
+        <v>5.3</v>
+      </c>
+      <c r="J91">
+        <v>5.6</v>
+      </c>
+      <c r="K91">
+        <v>5.7</v>
+      </c>
+      <c r="L91">
+        <v>6.3</v>
+      </c>
+      <c r="M91">
+        <v>2.8</v>
+      </c>
+      <c r="N91" s="2">
+        <v>45444</v>
+      </c>
+      <c r="O91">
+        <v>2024</v>
+      </c>
+      <c r="P91">
+        <v>6</v>
+      </c>
+      <c r="Q91" t="inlineStr">
+        <is>
+          <t>Jun</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/indecnacional.xlsx
+++ b/data/indecnacional.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q91"/>
+  <dimension ref="A1:Q92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5401,6 +5401,61 @@
         </is>
       </c>
     </row>
+    <row r="92">
+      <c r="A92">
+        <v>4</v>
+      </c>
+      <c r="B92">
+        <v>3.2</v>
+      </c>
+      <c r="C92">
+        <v>6.1</v>
+      </c>
+      <c r="D92">
+        <v>1.6</v>
+      </c>
+      <c r="E92">
+        <v>6</v>
+      </c>
+      <c r="F92">
+        <v>3.5</v>
+      </c>
+      <c r="G92">
+        <v>5.8</v>
+      </c>
+      <c r="H92">
+        <v>2.6</v>
+      </c>
+      <c r="I92">
+        <v>3.5</v>
+      </c>
+      <c r="J92">
+        <v>5.7</v>
+      </c>
+      <c r="K92">
+        <v>4.2</v>
+      </c>
+      <c r="L92">
+        <v>6.5</v>
+      </c>
+      <c r="M92">
+        <v>3.5</v>
+      </c>
+      <c r="N92" s="2">
+        <v>45474</v>
+      </c>
+      <c r="O92">
+        <v>2024</v>
+      </c>
+      <c r="P92">
+        <v>7</v>
+      </c>
+      <c r="Q92" t="inlineStr">
+        <is>
+          <t>Jul</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/indecnacional.xlsx
+++ b/data/indecnacional.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q92"/>
+  <dimension ref="A1:Q93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5456,6 +5456,61 @@
         </is>
       </c>
     </row>
+    <row r="93">
+      <c r="A93">
+        <v>4.2</v>
+      </c>
+      <c r="B93">
+        <v>3.6</v>
+      </c>
+      <c r="C93">
+        <v>3</v>
+      </c>
+      <c r="D93">
+        <v>2.1</v>
+      </c>
+      <c r="E93">
+        <v>7</v>
+      </c>
+      <c r="F93">
+        <v>4.3</v>
+      </c>
+      <c r="G93">
+        <v>4.1</v>
+      </c>
+      <c r="H93">
+        <v>5.1</v>
+      </c>
+      <c r="I93">
+        <v>4.9</v>
+      </c>
+      <c r="J93">
+        <v>3.7</v>
+      </c>
+      <c r="K93">
+        <v>6.6</v>
+      </c>
+      <c r="L93">
+        <v>4.8</v>
+      </c>
+      <c r="M93">
+        <v>2.3</v>
+      </c>
+      <c r="N93" s="2">
+        <v>45505</v>
+      </c>
+      <c r="O93">
+        <v>2024</v>
+      </c>
+      <c r="P93">
+        <v>8</v>
+      </c>
+      <c r="Q93" t="inlineStr">
+        <is>
+          <t>Aug</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/indecnacional.xlsx
+++ b/data/indecnacional.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q93"/>
+  <dimension ref="A1:Q94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5511,6 +5511,61 @@
         </is>
       </c>
     </row>
+    <row r="94">
+      <c r="A94">
+        <v>3.5</v>
+      </c>
+      <c r="B94">
+        <v>2.3</v>
+      </c>
+      <c r="C94">
+        <v>2.2</v>
+      </c>
+      <c r="D94">
+        <v>6</v>
+      </c>
+      <c r="E94">
+        <v>7.3</v>
+      </c>
+      <c r="F94">
+        <v>2.7</v>
+      </c>
+      <c r="G94">
+        <v>3.3</v>
+      </c>
+      <c r="H94">
+        <v>3.4</v>
+      </c>
+      <c r="I94">
+        <v>3</v>
+      </c>
+      <c r="J94">
+        <v>2.1</v>
+      </c>
+      <c r="K94">
+        <v>4.3</v>
+      </c>
+      <c r="L94">
+        <v>3.7</v>
+      </c>
+      <c r="M94">
+        <v>3.3</v>
+      </c>
+      <c r="N94" s="2">
+        <v>45536</v>
+      </c>
+      <c r="O94">
+        <v>2024</v>
+      </c>
+      <c r="P94">
+        <v>9</v>
+      </c>
+      <c r="Q94" t="inlineStr">
+        <is>
+          <t>Sep</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/indecnacional.xlsx
+++ b/data/indecnacional.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q94"/>
+  <dimension ref="A1:Q95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5566,6 +5566,61 @@
         </is>
       </c>
     </row>
+    <row r="95">
+      <c r="A95">
+        <v>2.7</v>
+      </c>
+      <c r="B95">
+        <v>1.2</v>
+      </c>
+      <c r="C95">
+        <v>3</v>
+      </c>
+      <c r="D95">
+        <v>4.4</v>
+      </c>
+      <c r="E95">
+        <v>5.4</v>
+      </c>
+      <c r="F95">
+        <v>2.6</v>
+      </c>
+      <c r="G95">
+        <v>3.6</v>
+      </c>
+      <c r="H95">
+        <v>1.2</v>
+      </c>
+      <c r="I95">
+        <v>2.1</v>
+      </c>
+      <c r="J95">
+        <v>2.9</v>
+      </c>
+      <c r="K95">
+        <v>3.5</v>
+      </c>
+      <c r="L95">
+        <v>4.3</v>
+      </c>
+      <c r="M95">
+        <v>2.8</v>
+      </c>
+      <c r="N95" s="2">
+        <v>45566</v>
+      </c>
+      <c r="O95">
+        <v>2024</v>
+      </c>
+      <c r="P95">
+        <v>10</v>
+      </c>
+      <c r="Q95" t="inlineStr">
+        <is>
+          <t>Oct</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/indecnacional.xlsx
+++ b/data/indecnacional.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q95"/>
+  <dimension ref="A1:Q96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5621,6 +5621,61 @@
         </is>
       </c>
     </row>
+    <row r="96">
+      <c r="A96">
+        <v>2.4</v>
+      </c>
+      <c r="B96">
+        <v>0.9</v>
+      </c>
+      <c r="C96">
+        <v>4</v>
+      </c>
+      <c r="D96">
+        <v>1.9</v>
+      </c>
+      <c r="E96">
+        <v>4.5</v>
+      </c>
+      <c r="F96">
+        <v>1.5</v>
+      </c>
+      <c r="G96">
+        <v>2.9</v>
+      </c>
+      <c r="H96">
+        <v>3.4</v>
+      </c>
+      <c r="I96">
+        <v>1.5</v>
+      </c>
+      <c r="J96">
+        <v>3</v>
+      </c>
+      <c r="K96">
+        <v>5.1</v>
+      </c>
+      <c r="L96">
+        <v>3.6</v>
+      </c>
+      <c r="M96">
+        <v>2.3</v>
+      </c>
+      <c r="N96" s="2">
+        <v>45597</v>
+      </c>
+      <c r="O96">
+        <v>2024</v>
+      </c>
+      <c r="P96">
+        <v>11</v>
+      </c>
+      <c r="Q96" t="inlineStr">
+        <is>
+          <t>Nov</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/indecnacional.xlsx
+++ b/data/indecnacional.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q96"/>
+  <dimension ref="A1:Q97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5676,6 +5676,61 @@
         </is>
       </c>
     </row>
+    <row r="97">
+      <c r="A97">
+        <v>2.7</v>
+      </c>
+      <c r="B97">
+        <v>2.2</v>
+      </c>
+      <c r="C97">
+        <v>2.5</v>
+      </c>
+      <c r="D97">
+        <v>1.6</v>
+      </c>
+      <c r="E97">
+        <v>5.3</v>
+      </c>
+      <c r="F97">
+        <v>0.9</v>
+      </c>
+      <c r="G97">
+        <v>2.1</v>
+      </c>
+      <c r="H97">
+        <v>2.2</v>
+      </c>
+      <c r="I97">
+        <v>5</v>
+      </c>
+      <c r="J97">
+        <v>2.8</v>
+      </c>
+      <c r="K97">
+        <v>2.2</v>
+      </c>
+      <c r="L97">
+        <v>4.6</v>
+      </c>
+      <c r="M97">
+        <v>2.1</v>
+      </c>
+      <c r="N97" s="2">
+        <v>45627</v>
+      </c>
+      <c r="O97">
+        <v>2024</v>
+      </c>
+      <c r="P97">
+        <v>12</v>
+      </c>
+      <c r="Q97" t="inlineStr">
+        <is>
+          <t>Dec</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/indecnacional.xlsx
+++ b/data/indecnacional.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q97"/>
+  <dimension ref="A1:Q98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5731,6 +5731,61 @@
         </is>
       </c>
     </row>
+    <row r="98">
+      <c r="A98">
+        <v>2.2</v>
+      </c>
+      <c r="B98">
+        <v>1.8</v>
+      </c>
+      <c r="C98">
+        <v>2.4</v>
+      </c>
+      <c r="D98">
+        <v>-0.7</v>
+      </c>
+      <c r="E98">
+        <v>4</v>
+      </c>
+      <c r="F98">
+        <v>1.6</v>
+      </c>
+      <c r="G98">
+        <v>2.4</v>
+      </c>
+      <c r="H98">
+        <v>1.2</v>
+      </c>
+      <c r="I98">
+        <v>2.3</v>
+      </c>
+      <c r="J98">
+        <v>2.5</v>
+      </c>
+      <c r="K98">
+        <v>0.5</v>
+      </c>
+      <c r="L98">
+        <v>5.3</v>
+      </c>
+      <c r="M98">
+        <v>2.5</v>
+      </c>
+      <c r="N98" s="2">
+        <v>45658</v>
+      </c>
+      <c r="O98">
+        <v>2025</v>
+      </c>
+      <c r="P98">
+        <v>1</v>
+      </c>
+      <c r="Q98" t="inlineStr">
+        <is>
+          <t>Jan</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/indecnacional.xlsx
+++ b/data/indecnacional.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q98"/>
+  <dimension ref="A1:Q99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5786,6 +5786,61 @@
         </is>
       </c>
     </row>
+    <row r="99">
+      <c r="A99">
+        <v>2.4</v>
+      </c>
+      <c r="B99">
+        <v>3.2</v>
+      </c>
+      <c r="C99">
+        <v>1.3</v>
+      </c>
+      <c r="D99">
+        <v>0.4</v>
+      </c>
+      <c r="E99">
+        <v>3.7</v>
+      </c>
+      <c r="F99">
+        <v>1</v>
+      </c>
+      <c r="G99">
+        <v>2.1</v>
+      </c>
+      <c r="H99">
+        <v>1.7</v>
+      </c>
+      <c r="I99">
+        <v>2.3</v>
+      </c>
+      <c r="J99">
+        <v>2.9</v>
+      </c>
+      <c r="K99">
+        <v>2.3</v>
+      </c>
+      <c r="L99">
+        <v>2.3</v>
+      </c>
+      <c r="M99">
+        <v>2.9</v>
+      </c>
+      <c r="N99" s="2">
+        <v>45689</v>
+      </c>
+      <c r="O99">
+        <v>2025</v>
+      </c>
+      <c r="P99">
+        <v>2</v>
+      </c>
+      <c r="Q99" t="inlineStr">
+        <is>
+          <t>Feb</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/indecnacional.xlsx
+++ b/data/indecnacional.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q99"/>
+  <dimension ref="A1:Q100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5841,6 +5841,61 @@
         </is>
       </c>
     </row>
+    <row r="100">
+      <c r="A100">
+        <v>3.7</v>
+      </c>
+      <c r="B100">
+        <v>5.9</v>
+      </c>
+      <c r="C100">
+        <v>0.8</v>
+      </c>
+      <c r="D100">
+        <v>4.6</v>
+      </c>
+      <c r="E100">
+        <v>2.9</v>
+      </c>
+      <c r="F100">
+        <v>1.5</v>
+      </c>
+      <c r="G100">
+        <v>1.8</v>
+      </c>
+      <c r="H100">
+        <v>1.7</v>
+      </c>
+      <c r="I100">
+        <v>2.5</v>
+      </c>
+      <c r="J100">
+        <v>0.2</v>
+      </c>
+      <c r="K100">
+        <v>21.6</v>
+      </c>
+      <c r="L100">
+        <v>3.9</v>
+      </c>
+      <c r="M100">
+        <v>3.2</v>
+      </c>
+      <c r="N100" s="2">
+        <v>45717</v>
+      </c>
+      <c r="O100">
+        <v>2025</v>
+      </c>
+      <c r="P100">
+        <v>3</v>
+      </c>
+      <c r="Q100" t="inlineStr">
+        <is>
+          <t>Mar</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/indecnacional.xlsx
+++ b/data/indecnacional.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q100"/>
+  <dimension ref="A1:Q101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5896,6 +5896,61 @@
         </is>
       </c>
     </row>
+    <row r="101">
+      <c r="A101">
+        <v>2.8</v>
+      </c>
+      <c r="B101">
+        <v>2.9</v>
+      </c>
+      <c r="C101">
+        <v>2.8</v>
+      </c>
+      <c r="D101">
+        <v>3.8</v>
+      </c>
+      <c r="E101">
+        <v>1.9</v>
+      </c>
+      <c r="F101">
+        <v>0.9</v>
+      </c>
+      <c r="G101">
+        <v>2.5</v>
+      </c>
+      <c r="H101">
+        <v>1.7</v>
+      </c>
+      <c r="I101">
+        <v>2.8</v>
+      </c>
+      <c r="J101">
+        <v>4</v>
+      </c>
+      <c r="K101">
+        <v>2.5</v>
+      </c>
+      <c r="L101">
+        <v>4.1</v>
+      </c>
+      <c r="M101">
+        <v>2.5</v>
+      </c>
+      <c r="N101" s="2">
+        <v>45748</v>
+      </c>
+      <c r="O101">
+        <v>2025</v>
+      </c>
+      <c r="P101">
+        <v>4</v>
+      </c>
+      <c r="Q101" t="inlineStr">
+        <is>
+          <t>Apr</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/indecnacional.xlsx
+++ b/data/indecnacional.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q101"/>
+  <dimension ref="A1:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5951,6 +5951,61 @@
         </is>
       </c>
     </row>
+    <row r="102">
+      <c r="A102">
+        <v>1.5</v>
+      </c>
+      <c r="B102">
+        <v>0.5</v>
+      </c>
+      <c r="C102">
+        <v>0.6</v>
+      </c>
+      <c r="D102">
+        <v>0.9</v>
+      </c>
+      <c r="E102">
+        <v>2.4</v>
+      </c>
+      <c r="F102">
+        <v>1.4</v>
+      </c>
+      <c r="G102">
+        <v>2.7</v>
+      </c>
+      <c r="H102">
+        <v>0.4</v>
+      </c>
+      <c r="I102">
+        <v>4.1</v>
+      </c>
+      <c r="J102">
+        <v>1.7</v>
+      </c>
+      <c r="K102">
+        <v>1.9</v>
+      </c>
+      <c r="L102">
+        <v>3</v>
+      </c>
+      <c r="M102">
+        <v>2.6</v>
+      </c>
+      <c r="N102" s="2">
+        <v>45778</v>
+      </c>
+      <c r="O102">
+        <v>2025</v>
+      </c>
+      <c r="P102">
+        <v>5</v>
+      </c>
+      <c r="Q102" t="inlineStr">
+        <is>
+          <t>May</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/indecnacional.xlsx
+++ b/data/indecnacional.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q102"/>
+  <dimension ref="A1:Q103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6006,6 +6006,61 @@
         </is>
       </c>
     </row>
+    <row r="103">
+      <c r="A103">
+        <v>1.6</v>
+      </c>
+      <c r="B103">
+        <v>0.6</v>
+      </c>
+      <c r="C103">
+        <v>2.8</v>
+      </c>
+      <c r="D103">
+        <v>0.5</v>
+      </c>
+      <c r="E103">
+        <v>3.4</v>
+      </c>
+      <c r="F103">
+        <v>1.9</v>
+      </c>
+      <c r="G103">
+        <v>2.2</v>
+      </c>
+      <c r="H103">
+        <v>1.6</v>
+      </c>
+      <c r="I103">
+        <v>1.8</v>
+      </c>
+      <c r="J103">
+        <v>2.5</v>
+      </c>
+      <c r="K103">
+        <v>3.7</v>
+      </c>
+      <c r="L103">
+        <v>2.1</v>
+      </c>
+      <c r="M103">
+        <v>1</v>
+      </c>
+      <c r="N103" s="2">
+        <v>45809</v>
+      </c>
+      <c r="O103">
+        <v>2025</v>
+      </c>
+      <c r="P103">
+        <v>6</v>
+      </c>
+      <c r="Q103" t="inlineStr">
+        <is>
+          <t>Jun</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/indecnacional.xlsx
+++ b/data/indecnacional.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q103"/>
+  <dimension ref="A1:Q104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6061,6 +6061,61 @@
         </is>
       </c>
     </row>
+    <row r="104">
+      <c r="A104">
+        <v>1.9</v>
+      </c>
+      <c r="B104">
+        <v>1.9</v>
+      </c>
+      <c r="C104">
+        <v>0.6</v>
+      </c>
+      <c r="D104">
+        <v>-0.9</v>
+      </c>
+      <c r="E104">
+        <v>1.5</v>
+      </c>
+      <c r="F104">
+        <v>1.5</v>
+      </c>
+      <c r="G104">
+        <v>1.1</v>
+      </c>
+      <c r="H104">
+        <v>2.8</v>
+      </c>
+      <c r="I104">
+        <v>2.3</v>
+      </c>
+      <c r="J104">
+        <v>4.8</v>
+      </c>
+      <c r="K104">
+        <v>1.9</v>
+      </c>
+      <c r="L104">
+        <v>2.8</v>
+      </c>
+      <c r="M104">
+        <v>2.1</v>
+      </c>
+      <c r="N104" s="2">
+        <v>45839</v>
+      </c>
+      <c r="O104">
+        <v>2025</v>
+      </c>
+      <c r="P104">
+        <v>7</v>
+      </c>
+      <c r="Q104" t="inlineStr">
+        <is>
+          <t>Jul</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/indecnacional.xlsx
+++ b/data/indecnacional.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q104"/>
+  <dimension ref="A1:Q105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6116,6 +6116,61 @@
         </is>
       </c>
     </row>
+    <row r="105">
+      <c r="A105">
+        <v>1.9</v>
+      </c>
+      <c r="B105">
+        <v>1.4</v>
+      </c>
+      <c r="C105">
+        <v>3.5</v>
+      </c>
+      <c r="D105">
+        <v>-0.3</v>
+      </c>
+      <c r="E105">
+        <v>2.7</v>
+      </c>
+      <c r="F105">
+        <v>0.9</v>
+      </c>
+      <c r="G105">
+        <v>1.7</v>
+      </c>
+      <c r="H105">
+        <v>3.6</v>
+      </c>
+      <c r="I105">
+        <v>1.9</v>
+      </c>
+      <c r="J105">
+        <v>0.5</v>
+      </c>
+      <c r="K105">
+        <v>2.5</v>
+      </c>
+      <c r="L105">
+        <v>3.4</v>
+      </c>
+      <c r="M105">
+        <v>2.2</v>
+      </c>
+      <c r="N105" s="2">
+        <v>45870</v>
+      </c>
+      <c r="O105">
+        <v>2025</v>
+      </c>
+      <c r="P105">
+        <v>8</v>
+      </c>
+      <c r="Q105" t="inlineStr">
+        <is>
+          <t>Aug</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/indecnacional.xlsx
+++ b/data/indecnacional.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q105"/>
+  <dimension ref="A1:Q106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6171,6 +6171,61 @@
         </is>
       </c>
     </row>
+    <row r="106">
+      <c r="A106">
+        <v>2.1</v>
+      </c>
+      <c r="B106">
+        <v>1.9</v>
+      </c>
+      <c r="C106">
+        <v>1.6</v>
+      </c>
+      <c r="D106">
+        <v>2.1</v>
+      </c>
+      <c r="E106">
+        <v>3.1</v>
+      </c>
+      <c r="F106">
+        <v>2.2</v>
+      </c>
+      <c r="G106">
+        <v>2.3</v>
+      </c>
+      <c r="H106">
+        <v>3</v>
+      </c>
+      <c r="I106">
+        <v>2.2</v>
+      </c>
+      <c r="J106">
+        <v>1.3</v>
+      </c>
+      <c r="K106">
+        <v>3.1</v>
+      </c>
+      <c r="L106">
+        <v>1.1</v>
+      </c>
+      <c r="M106">
+        <v>2.1</v>
+      </c>
+      <c r="N106" s="2">
+        <v>45901</v>
+      </c>
+      <c r="O106">
+        <v>2025</v>
+      </c>
+      <c r="P106">
+        <v>9</v>
+      </c>
+      <c r="Q106" t="inlineStr">
+        <is>
+          <t>Sep</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/indecnacional.xlsx
+++ b/data/indecnacional.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q106"/>
+  <dimension ref="A1:Q107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6226,6 +6226,61 @@
         </is>
       </c>
     </row>
+    <row r="107">
+      <c r="A107">
+        <v>2.3</v>
+      </c>
+      <c r="B107">
+        <v>2.3</v>
+      </c>
+      <c r="C107">
+        <v>2.4</v>
+      </c>
+      <c r="D107">
+        <v>2.4</v>
+      </c>
+      <c r="E107">
+        <v>2.8</v>
+      </c>
+      <c r="F107">
+        <v>1.6</v>
+      </c>
+      <c r="G107">
+        <v>1.8</v>
+      </c>
+      <c r="H107">
+        <v>3.5</v>
+      </c>
+      <c r="I107">
+        <v>2.2</v>
+      </c>
+      <c r="J107">
+        <v>1.6</v>
+      </c>
+      <c r="K107">
+        <v>1.7</v>
+      </c>
+      <c r="L107">
+        <v>2.2</v>
+      </c>
+      <c r="M107">
+        <v>2.4</v>
+      </c>
+      <c r="N107" s="2">
+        <v>45931</v>
+      </c>
+      <c r="O107">
+        <v>2025</v>
+      </c>
+      <c r="P107">
+        <v>10</v>
+      </c>
+      <c r="Q107" t="inlineStr">
+        <is>
+          <t>Oct</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/indecnacional.xlsx
+++ b/data/indecnacional.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q107"/>
+  <dimension ref="A1:Q108"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6281,6 +6281,61 @@
         </is>
       </c>
     </row>
+    <row r="108">
+      <c r="A108">
+        <v>2.5</v>
+      </c>
+      <c r="B108">
+        <v>2.8</v>
+      </c>
+      <c r="C108">
+        <v>1.2</v>
+      </c>
+      <c r="D108">
+        <v>0.5</v>
+      </c>
+      <c r="E108">
+        <v>3.4</v>
+      </c>
+      <c r="F108">
+        <v>1.1</v>
+      </c>
+      <c r="G108">
+        <v>2.4</v>
+      </c>
+      <c r="H108">
+        <v>3</v>
+      </c>
+      <c r="I108">
+        <v>2.7</v>
+      </c>
+      <c r="J108">
+        <v>2.4</v>
+      </c>
+      <c r="K108">
+        <v>2.2</v>
+      </c>
+      <c r="L108">
+        <v>2.5</v>
+      </c>
+      <c r="M108">
+        <v>2.5</v>
+      </c>
+      <c r="N108" s="2">
+        <v>45962</v>
+      </c>
+      <c r="O108">
+        <v>2025</v>
+      </c>
+      <c r="P108">
+        <v>11</v>
+      </c>
+      <c r="Q108" t="inlineStr">
+        <is>
+          <t>Nov</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/indecnacional.xlsx
+++ b/data/indecnacional.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q108"/>
+  <dimension ref="A1:Q109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6336,6 +6336,61 @@
         </is>
       </c>
     </row>
+    <row r="109">
+      <c r="A109">
+        <v>2.8</v>
+      </c>
+      <c r="B109">
+        <v>3.1</v>
+      </c>
+      <c r="C109">
+        <v>2.8</v>
+      </c>
+      <c r="D109">
+        <v>1.1</v>
+      </c>
+      <c r="E109">
+        <v>3.4</v>
+      </c>
+      <c r="F109">
+        <v>2</v>
+      </c>
+      <c r="G109">
+        <v>2.1</v>
+      </c>
+      <c r="H109">
+        <v>4</v>
+      </c>
+      <c r="I109">
+        <v>3.3</v>
+      </c>
+      <c r="J109">
+        <v>2.5</v>
+      </c>
+      <c r="K109">
+        <v>0.4</v>
+      </c>
+      <c r="L109">
+        <v>3.2</v>
+      </c>
+      <c r="M109">
+        <v>2.6</v>
+      </c>
+      <c r="N109" s="2">
+        <v>45992</v>
+      </c>
+      <c r="O109">
+        <v>2025</v>
+      </c>
+      <c r="P109">
+        <v>12</v>
+      </c>
+      <c r="Q109" t="inlineStr">
+        <is>
+          <t>Dec</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/indecnacional.xlsx
+++ b/data/indecnacional.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q109"/>
+  <dimension ref="A1:Q110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6391,6 +6391,61 @@
         </is>
       </c>
     </row>
+    <row r="110">
+      <c r="A110">
+        <v>2.9</v>
+      </c>
+      <c r="B110">
+        <v>4.7</v>
+      </c>
+      <c r="C110">
+        <v>1.5</v>
+      </c>
+      <c r="D110">
+        <v>-0.5</v>
+      </c>
+      <c r="E110">
+        <v>3</v>
+      </c>
+      <c r="F110">
+        <v>1.8</v>
+      </c>
+      <c r="G110">
+        <v>2.3</v>
+      </c>
+      <c r="H110">
+        <v>1.8</v>
+      </c>
+      <c r="I110">
+        <v>3.6</v>
+      </c>
+      <c r="J110">
+        <v>1</v>
+      </c>
+      <c r="K110">
+        <v>0.6</v>
+      </c>
+      <c r="L110">
+        <v>4.1</v>
+      </c>
+      <c r="M110">
+        <v>2.7</v>
+      </c>
+      <c r="N110" s="2">
+        <v>46023</v>
+      </c>
+      <c r="O110">
+        <v>2026</v>
+      </c>
+      <c r="P110">
+        <v>1</v>
+      </c>
+      <c r="Q110" t="inlineStr">
+        <is>
+          <t>Jan</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
